--- a/environhub/westbengalsunderbans.xlsx
+++ b/environhub/westbengalsunderbans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t xml:space="preserve">Summary</t>
   </si>
@@ -46,11 +46,10 @@
     <t xml:space="preserve">Court Judgement</t>
   </si>
   <si>
-    <t xml:space="preserve">high court ordered to delay the proposed coal plant which could potentially destroy sunderbans and habitats depending on it
-</t>
+    <t xml:space="preserve">high court ordered to delay the proposed coal plant which could potentially destroy sunderbans and habitats depending on it</t>
   </si>
   <si>
-    <t xml:space="preserve">Political Interevention</t>
+    <t xml:space="preserve">Political Intervention</t>
   </si>
   <si>
     <t xml:space="preserve">government pushes the project along with bangladesh government</t>
@@ -62,10 +61,13 @@
     <t xml:space="preserve">Thanks to media's constant pressure with environmental activist's government delayed the project by atleast 6 years and still faces the issue</t>
   </si>
   <si>
-    <t xml:space="preserve">Public Intervention </t>
+    <t xml:space="preserve">Actions taken</t>
   </si>
   <si>
     <t xml:space="preserve">locals protest due to their displaced homes .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geographical effect</t>
   </si>
   <si>
     <t xml:space="preserve">The average mean sea level rise and the average sea surface temperature rise in this area are estimated to double the global average</t>
@@ -225,7 +227,7 @@
     <numFmt numFmtId="166" formatCode="YYYY\-MM"/>
     <numFmt numFmtId="167" formatCode="YYYY\-M"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -272,6 +274,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <u val="single"/>
@@ -367,15 +376,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,7 +408,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1435,8 +1444,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A2:A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1505,10 +1514,12 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="3" t="n">
         <v>43306</v>
       </c>
@@ -2526,7 +2537,7 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A185 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2540,13 +2551,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -2574,24 +2585,24 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3610,7 +3621,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A185 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3622,15 +3633,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>100</v>
@@ -3638,7 +3649,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>67</v>
@@ -3646,7 +3657,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>32</v>
@@ -3654,7 +3665,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>28</v>
@@ -3662,7 +3673,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>25</v>
@@ -3670,7 +3681,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>23</v>
@@ -3678,7 +3689,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>20</v>
@@ -3686,7 +3697,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>18</v>
@@ -3694,7 +3705,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>18</v>
@@ -3702,7 +3713,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>18</v>
@@ -3710,7 +3721,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>17</v>
@@ -3718,7 +3729,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>16</v>
@@ -3726,7 +3737,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>15</v>
@@ -3734,7 +3745,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>14</v>
@@ -3742,7 +3753,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>12</v>
@@ -3750,7 +3761,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>11</v>
@@ -3758,7 +3769,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>10</v>
@@ -3766,7 +3777,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>10</v>
@@ -3774,7 +3785,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>9</v>
@@ -3782,7 +3793,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>0</v>
@@ -3790,7 +3801,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="6" t="n">
         <v>0</v>
@@ -3798,7 +3809,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="6" t="n">
         <v>0</v>
@@ -3806,7 +3817,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="6" t="n">
         <v>0</v>
@@ -3814,7 +3825,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="6" t="n">
         <v>0</v>
@@ -3822,7 +3833,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="6" t="n">
         <v>0</v>
@@ -3830,7 +3841,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="6" t="n">
         <v>0</v>
@@ -3838,7 +3849,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="6" t="n">
         <v>0</v>
@@ -3846,7 +3857,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="6" t="n">
         <v>0</v>
@@ -3854,7 +3865,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="6" t="n">
         <v>0</v>
@@ -3862,7 +3873,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" s="6" t="n">
         <v>0</v>
@@ -3870,7 +3881,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="6" t="n">
         <v>0</v>
@@ -3878,7 +3889,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="6" t="n">
         <v>0</v>
@@ -3886,7 +3897,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="6" t="n">
         <v>0</v>
@@ -3894,7 +3905,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="6" t="n">
         <v>0</v>
@@ -3902,7 +3913,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" s="6" t="n">
         <v>0</v>
@@ -3910,7 +3921,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" s="6" t="n">
         <v>0</v>
@@ -4897,8 +4908,8 @@
   </sheetPr>
   <dimension ref="A1:B186"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4913,7 +4924,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7222,7 +7233,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A185 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7234,12 +7245,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
